--- a/static/documents/测试用例示例样式.xlsx
+++ b/static/documents/测试用例示例样式.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Project\Software_cup\teacher_app\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Project\Software_cup\static\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75E5372-FDDA-46C7-81AD-AE9E3DC783E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4253383C-3C8C-4D1F-B132-31108A0CC21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,11 +27,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>输入</t>
+    <t>input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>输出</t>
+    <t>output</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -366,7 +366,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
